--- a/Soil_Fert_N_Crop_Uptake/fert_soil_N_by_trt_and_topdress.xlsx
+++ b/Soil_Fert_N_Crop_Uptake/fert_soil_N_by_trt_and_topdress.xlsx
@@ -407,13 +407,13 @@
         <v>50.29845605012278</v>
       </c>
       <c r="D2">
-        <v>5.723197772480086</v>
+        <v>4.046911954992413</v>
       </c>
       <c r="E2">
         <v>38.26336524452703</v>
       </c>
       <c r="F2">
-        <v>4.253981042291556</v>
+        <v>3.008018842043377</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -434,13 +434,13 @@
         <v>71.76539115839702</v>
       </c>
       <c r="D3">
-        <v>6.75310403020973</v>
+        <v>4.775165653819504</v>
       </c>
       <c r="E3">
         <v>41.05854660514792</v>
       </c>
       <c r="F3">
-        <v>4.385281657078441</v>
+        <v>3.100862397133146</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -461,13 +461,13 @@
         <v>93.41452022101359</v>
       </c>
       <c r="D4">
-        <v>2.538896172620064</v>
+        <v>1.795270700388219</v>
       </c>
       <c r="E4">
         <v>45.08532135130243</v>
       </c>
       <c r="F4">
-        <v>5.318343811766733</v>
+        <v>3.760636973981768</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -488,13 +488,13 @@
         <v>63.15784676888691</v>
       </c>
       <c r="D5">
-        <v>5.212243300906931</v>
+        <v>3.685612583265446</v>
       </c>
       <c r="E5">
         <v>43.30662261718641</v>
       </c>
       <c r="F5">
-        <v>2.358541506916839</v>
+        <v>1.667740693250835</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -515,13 +515,13 @@
         <v>86.81950059947856</v>
       </c>
       <c r="D6">
-        <v>5.645583656012158</v>
+        <v>3.992030486922137</v>
       </c>
       <c r="E6">
         <v>40.54755331880354</v>
       </c>
       <c r="F6">
-        <v>5.001917222445285</v>
+        <v>3.536889586924842</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         <v>110.1373544186889</v>
       </c>
       <c r="D7">
-        <v>4.028042148839605</v>
+        <v>2.848255918349718</v>
       </c>
       <c r="E7">
         <v>47.72433232809248</v>
       </c>
       <c r="F7">
-        <v>4.201147036882254</v>
+        <v>2.970659558541213</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -569,13 +569,13 @@
         <v>54.41825693314881</v>
       </c>
       <c r="D8">
-        <v>8.85058442933618</v>
+        <v>6.258308267447683</v>
       </c>
       <c r="E8">
         <v>8.545867035535661</v>
       </c>
       <c r="F8">
-        <v>1.45200658973214</v>
+        <v>1.02672370592715</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -596,13 +596,13 @@
         <v>77.46666964694123</v>
       </c>
       <c r="D9">
-        <v>6.404243041554233</v>
+        <v>4.528483683049759</v>
       </c>
       <c r="E9">
         <v>8.792418196228587</v>
       </c>
       <c r="F9">
-        <v>1.05061333807065</v>
+        <v>0.7428958157547914</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -623,13 +623,13 @@
         <v>77.09435304762992</v>
       </c>
       <c r="D10">
-        <v>4.001286890381624</v>
+        <v>2.82933709366168</v>
       </c>
       <c r="E10">
         <v>11.1839007517728</v>
       </c>
       <c r="F10">
-        <v>1.010292581676364</v>
+        <v>0.7143847354858209</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -650,13 +650,13 @@
         <v>100.5637391139927</v>
       </c>
       <c r="D11">
-        <v>3.323237285366626</v>
+        <v>2.349883619974715</v>
       </c>
       <c r="E11">
         <v>11.7110064272292</v>
       </c>
       <c r="F11">
-        <v>1.230728794867918</v>
+        <v>0.8702566766526524</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
